--- a/source/cooc_questionaire.xlsx
+++ b/source/cooc_questionaire.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7964117137959924</v>
+        <v>0.2035882862040076</v>
       </c>
       <c r="D2">
-        <v>0.7593401608661772</v>
+        <v>0.2406598391338228</v>
       </c>
       <c r="E2">
-        <v>0.5433806282409055</v>
+        <v>0.4566193717590945</v>
       </c>
       <c r="F2">
-        <v>0.654593951611864</v>
+        <v>0.345406048388136</v>
       </c>
       <c r="G2">
-        <v>0.5589395678749294</v>
+        <v>0.4410604321250706</v>
       </c>
       <c r="H2">
-        <v>0.6773372716053307</v>
+        <v>0.3226627283946693</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7964117137959924</v>
+        <v>0.2035882862040076</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8178160914795788</v>
+        <v>0.1821839085204212</v>
       </c>
       <c r="E3">
-        <v>0.5595609140339926</v>
+        <v>0.4404390859660074</v>
       </c>
       <c r="F3">
-        <v>0.6745805748254411</v>
+        <v>0.3254194251745589</v>
       </c>
       <c r="G3">
-        <v>0.5226072945114194</v>
+        <v>0.4773927054885806</v>
       </c>
       <c r="H3">
-        <v>0.6722285523167648</v>
+        <v>0.3277714476832352</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7593401608661772</v>
+        <v>0.2406598391338228</v>
       </c>
       <c r="C4">
-        <v>0.8178160914795788</v>
+        <v>0.1821839085204212</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5276599020772532</v>
+        <v>0.4723400979227468</v>
       </c>
       <c r="F4">
-        <v>0.6725784798516553</v>
+        <v>0.3274215201483447</v>
       </c>
       <c r="G4">
-        <v>0.5295074957810862</v>
+        <v>0.4704925042189138</v>
       </c>
       <c r="H4">
-        <v>0.6879471929151798</v>
+        <v>0.3120528070848202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5433806282409055</v>
+        <v>0.4566193717590945</v>
       </c>
       <c r="C5">
-        <v>0.5595609140339926</v>
+        <v>0.4404390859660074</v>
       </c>
       <c r="D5">
-        <v>0.5276599020772532</v>
+        <v>0.4723400979227468</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7342146303525225</v>
+        <v>0.2657853696474775</v>
       </c>
       <c r="G5">
-        <v>0.662721101396024</v>
+        <v>0.337278898603976</v>
       </c>
       <c r="H5">
-        <v>0.5997349123782694</v>
+        <v>0.4002650876217306</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.654593951611864</v>
+        <v>0.345406048388136</v>
       </c>
       <c r="C6">
-        <v>0.6745805748254411</v>
+        <v>0.3254194251745589</v>
       </c>
       <c r="D6">
-        <v>0.6725784798516553</v>
+        <v>0.3274215201483447</v>
       </c>
       <c r="E6">
-        <v>0.7342146303525225</v>
+        <v>0.2657853696474775</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6608115457985426</v>
+        <v>0.3391884542014574</v>
       </c>
       <c r="H6">
-        <v>0.7667820348058967</v>
+        <v>0.2332179651941033</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5589395678749294</v>
+        <v>0.4410604321250706</v>
       </c>
       <c r="C7">
-        <v>0.5226072945114194</v>
+        <v>0.4773927054885806</v>
       </c>
       <c r="D7">
-        <v>0.5295074957810862</v>
+        <v>0.4704925042189138</v>
       </c>
       <c r="E7">
-        <v>0.662721101396024</v>
+        <v>0.337278898603976</v>
       </c>
       <c r="F7">
-        <v>0.6608115457985426</v>
+        <v>0.3391884542014574</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5936152597976857</v>
+        <v>0.4063847402023143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6773372716053307</v>
+        <v>0.3226627283946693</v>
       </c>
       <c r="C8">
-        <v>0.6722285523167648</v>
+        <v>0.3277714476832352</v>
       </c>
       <c r="D8">
-        <v>0.6879471929151798</v>
+        <v>0.3120528070848202</v>
       </c>
       <c r="E8">
-        <v>0.5997349123782694</v>
+        <v>0.4002650876217306</v>
       </c>
       <c r="F8">
-        <v>0.7667820348058967</v>
+        <v>0.2332179651941033</v>
       </c>
       <c r="G8">
-        <v>0.5936152597976857</v>
+        <v>0.4063847402023143</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/source/cooc_questionaire.xlsx
+++ b/source/cooc_questionaire.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2035882862040076</v>
+        <v>0.7964117137959924</v>
       </c>
       <c r="D2">
-        <v>0.2406598391338228</v>
+        <v>0.7593401608661772</v>
       </c>
       <c r="E2">
-        <v>0.4566193717590945</v>
+        <v>0.5433806282409055</v>
       </c>
       <c r="F2">
-        <v>0.345406048388136</v>
+        <v>0.654593951611864</v>
       </c>
       <c r="G2">
-        <v>0.4410604321250706</v>
+        <v>0.5589395678749294</v>
       </c>
       <c r="H2">
-        <v>0.3226627283946693</v>
+        <v>0.6773372716053307</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2035882862040076</v>
+        <v>0.7964117137959924</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1821839085204212</v>
+        <v>0.8178160914795788</v>
       </c>
       <c r="E3">
-        <v>0.4404390859660074</v>
+        <v>0.5595609140339926</v>
       </c>
       <c r="F3">
-        <v>0.3254194251745589</v>
+        <v>0.6745805748254411</v>
       </c>
       <c r="G3">
-        <v>0.4773927054885806</v>
+        <v>0.5226072945114194</v>
       </c>
       <c r="H3">
-        <v>0.3277714476832352</v>
+        <v>0.6722285523167648</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2406598391338228</v>
+        <v>0.7593401608661772</v>
       </c>
       <c r="C4">
-        <v>0.1821839085204212</v>
+        <v>0.8178160914795788</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4723400979227468</v>
+        <v>0.5276599020772532</v>
       </c>
       <c r="F4">
-        <v>0.3274215201483447</v>
+        <v>0.6725784798516553</v>
       </c>
       <c r="G4">
-        <v>0.4704925042189138</v>
+        <v>0.5295074957810862</v>
       </c>
       <c r="H4">
-        <v>0.3120528070848202</v>
+        <v>0.6879471929151798</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4566193717590945</v>
+        <v>0.5433806282409055</v>
       </c>
       <c r="C5">
-        <v>0.4404390859660074</v>
+        <v>0.5595609140339926</v>
       </c>
       <c r="D5">
-        <v>0.4723400979227468</v>
+        <v>0.5276599020772532</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2657853696474775</v>
+        <v>0.7342146303525225</v>
       </c>
       <c r="G5">
-        <v>0.337278898603976</v>
+        <v>0.662721101396024</v>
       </c>
       <c r="H5">
-        <v>0.4002650876217306</v>
+        <v>0.5997349123782694</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.345406048388136</v>
+        <v>0.654593951611864</v>
       </c>
       <c r="C6">
-        <v>0.3254194251745589</v>
+        <v>0.6745805748254411</v>
       </c>
       <c r="D6">
-        <v>0.3274215201483447</v>
+        <v>0.6725784798516553</v>
       </c>
       <c r="E6">
-        <v>0.2657853696474775</v>
+        <v>0.7342146303525225</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3391884542014574</v>
+        <v>0.6608115457985426</v>
       </c>
       <c r="H6">
-        <v>0.2332179651941033</v>
+        <v>0.7667820348058967</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4410604321250706</v>
+        <v>0.5589395678749294</v>
       </c>
       <c r="C7">
-        <v>0.4773927054885806</v>
+        <v>0.5226072945114194</v>
       </c>
       <c r="D7">
-        <v>0.4704925042189138</v>
+        <v>0.5295074957810862</v>
       </c>
       <c r="E7">
-        <v>0.337278898603976</v>
+        <v>0.662721101396024</v>
       </c>
       <c r="F7">
-        <v>0.3391884542014574</v>
+        <v>0.6608115457985426</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4063847402023143</v>
+        <v>0.5936152597976857</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3226627283946693</v>
+        <v>0.6773372716053307</v>
       </c>
       <c r="C8">
-        <v>0.3277714476832352</v>
+        <v>0.6722285523167648</v>
       </c>
       <c r="D8">
-        <v>0.3120528070848202</v>
+        <v>0.6879471929151798</v>
       </c>
       <c r="E8">
-        <v>0.4002650876217306</v>
+        <v>0.5997349123782694</v>
       </c>
       <c r="F8">
-        <v>0.2332179651941033</v>
+        <v>0.7667820348058967</v>
       </c>
       <c r="G8">
-        <v>0.4063847402023143</v>
+        <v>0.5936152597976857</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/source/cooc_questionaire.xlsx
+++ b/source/cooc_questionaire.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7964117137959924</v>
+        <v>0.2035882862040077</v>
       </c>
       <c r="D2">
-        <v>0.7593401608661772</v>
+        <v>0.240659839133823</v>
       </c>
       <c r="E2">
-        <v>0.5433806282409055</v>
+        <v>0.4566193717590945</v>
       </c>
       <c r="F2">
-        <v>0.654593951611864</v>
+        <v>0.3454060483881363</v>
       </c>
       <c r="G2">
-        <v>0.5589395678749294</v>
+        <v>0.4410604321250707</v>
       </c>
       <c r="H2">
-        <v>0.6773372716053307</v>
+        <v>0.3226627283946691</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7964117137959924</v>
+        <v>0.2035882862040077</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8178160914795788</v>
+        <v>0.182183908520421</v>
       </c>
       <c r="E3">
-        <v>0.5595609140339926</v>
+        <v>0.4404390859660074</v>
       </c>
       <c r="F3">
-        <v>0.6745805748254411</v>
+        <v>0.3254194251745592</v>
       </c>
       <c r="G3">
-        <v>0.5226072945114194</v>
+        <v>0.4773927054885804</v>
       </c>
       <c r="H3">
-        <v>0.6722285523167648</v>
+        <v>0.3277714476832352</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7593401608661772</v>
+        <v>0.240659839133823</v>
       </c>
       <c r="C4">
-        <v>0.8178160914795788</v>
+        <v>0.182183908520421</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5276599020772532</v>
+        <v>0.4723400979227469</v>
       </c>
       <c r="F4">
-        <v>0.6725784798516553</v>
+        <v>0.327421520148345</v>
       </c>
       <c r="G4">
-        <v>0.5295074957810862</v>
+        <v>0.4704925042189136</v>
       </c>
       <c r="H4">
-        <v>0.6879471929151798</v>
+        <v>0.3120528070848201</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5433806282409055</v>
+        <v>0.4566193717590945</v>
       </c>
       <c r="C5">
-        <v>0.5595609140339926</v>
+        <v>0.4404390859660074</v>
       </c>
       <c r="D5">
-        <v>0.5276599020772532</v>
+        <v>0.4723400979227469</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7342146303525225</v>
+        <v>0.2657853696474776</v>
       </c>
       <c r="G5">
-        <v>0.662721101396024</v>
+        <v>0.337278898603976</v>
       </c>
       <c r="H5">
-        <v>0.5997349123782694</v>
+        <v>0.4002650876217305</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.654593951611864</v>
+        <v>0.3454060483881363</v>
       </c>
       <c r="C6">
-        <v>0.6745805748254411</v>
+        <v>0.3254194251745592</v>
       </c>
       <c r="D6">
-        <v>0.6725784798516553</v>
+        <v>0.327421520148345</v>
       </c>
       <c r="E6">
-        <v>0.7342146303525225</v>
+        <v>0.2657853696474776</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6608115457985426</v>
+        <v>0.3391884542014572</v>
       </c>
       <c r="H6">
-        <v>0.7667820348058967</v>
+        <v>0.2332179651941035</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5589395678749294</v>
+        <v>0.4410604321250707</v>
       </c>
       <c r="C7">
-        <v>0.5226072945114194</v>
+        <v>0.4773927054885804</v>
       </c>
       <c r="D7">
-        <v>0.5295074957810862</v>
+        <v>0.4704925042189136</v>
       </c>
       <c r="E7">
-        <v>0.662721101396024</v>
+        <v>0.337278898603976</v>
       </c>
       <c r="F7">
-        <v>0.6608115457985426</v>
+        <v>0.3391884542014572</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5936152597976857</v>
+        <v>0.4063847402023144</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6773372716053307</v>
+        <v>0.3226627283946691</v>
       </c>
       <c r="C8">
-        <v>0.6722285523167648</v>
+        <v>0.3277714476832352</v>
       </c>
       <c r="D8">
-        <v>0.6879471929151798</v>
+        <v>0.3120528070848201</v>
       </c>
       <c r="E8">
-        <v>0.5997349123782694</v>
+        <v>0.4002650876217305</v>
       </c>
       <c r="F8">
-        <v>0.7667820348058967</v>
+        <v>0.2332179651941035</v>
       </c>
       <c r="G8">
-        <v>0.5936152597976857</v>
+        <v>0.4063847402023144</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
